--- a/biology/Botanique/Pilotrichaceae/Pilotrichaceae.xlsx
+++ b/biology/Botanique/Pilotrichaceae/Pilotrichaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pilotrichaceae sont une famille de mousses de l'ordre des Hookeriales, comprenant une douzaine de genres, répartis dans les régions tropicales d'Amérique, d'Afrique, d'Asie du Sud-Est et d'Océanie. Pilotrichum est le genre type.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille comprend une douzaine de genres[1], répartis dans les régions tropicales d'Amérique, d'Afrique, d'Asie du Sud-Est et d'Océanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille comprend une douzaine de genres, répartis dans les régions tropicales d'Amérique, d'Afrique, d'Asie du Sud-Est et d'Océanie.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (17 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (17 juin 2021) :
 Cyclodictyon Mitt.
 Hermiragis (Brid.) Besch.
 Hypnella (Müll.Hal.) Jaeger
-Selon l'INPN      (17 juin 2021)[3] (taxons recensés en France, outre-mer compris) :
+Selon l'INPN      (17 juin 2021) (taxons recensés en France, outre-mer compris) :
 Actinodontium Schwägr., 1826
 Brymela Crosby &amp; B.H.Allen, 1985
 Callicostella (Müll.Hal.) Mitt., 1859
@@ -562,7 +578,7 @@
 Pilotrichum P.Beauv., 1804
 Thamniopsis (Mitt.) M.Fleisch., 1908
 Trachyxiphium W.R.Buck, 1987
-Selon Tropicos                                           (17 juin 2021)[1] :
+Selon Tropicos                                           (17 juin 2021) :
 Brymela Crosby &amp; B.H. Allen, 1985
 Callicostella (Müll. Hal.) Mitt., 1859
 Callicostellopsis Broth., 1907
@@ -605,10 +621,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des plantes formant des tapis de taille petite à moyenne, blanches, jaunâtres, vert pâle, bleuâtres ou brunâtres, pleurocarpées. Les tiges primaires sont vertes, rampantes, étalées, régulièrement ou irrégulièrement pennées ; le hyaloderme est présent ou absent, les cellules cylindriques centrales sont grandes, à parois minces, le brin central absent ; la paraphylie et la pseudoparaphylie sont absentes ; les poils axillaires contiennent de deux à plusieurs cellules, la cellule basale étant petite, brune, la cellule distale allongée, hyaline. Les tiges secondaires sont étalées, sous-dressées, frondeuses, non ou peu ramifiées. Les feuilles sont plus ou moins complanaires, souvent orientées dorsiventralement, quelque peu dimorphes ; les feuilles dorsales et ventrales sont dressées, largement oblongues, oblongues-ovales ou ovales-lancéolées ; les feuilles latérales sont dressées-étalées à étalées, plus étroites ; leurs bords sont souvent dentés ; l'apex est généralement acuminé ; le costa est double, bien développé ; les cellules alaires sont indifférenciées ; les cellules lamentaires sont isodiamétriques ou linéaires-rhomboïdales, lisses à une papilles, les parois lâches à fermes ; les cellules marginales formant ou non une bordure[4].
-Appareil reproducteur
-La condition sexuelle est polygame : autoïque, synoïque ou dioïque. Le seta est rouge à jaune rougeâtre, allongé, lisse ou papillonneux-scabreux. La capsule est inclinée, horizontale, pendante, ou parfois dressée, ovoïde à oblongue-cylindrique, lisse, contractée sous la bouche lorsqu'elle est sèche ; l'annulus est absent ou étroit ; l'opercule est conique, rostré à subulé ; le péristome est double, rouge foncé ou rouge-brun. L'exostome présente seize dents, lancéolées à subulées, sillonnées, striées à la base, papilleuses à la base, trabéculées, parfois bordées ; l'endostome est jaune à jaune-brun, finement papilleux à presque lisse, la membrane basale haute, les segments lancéolés, aussi longs que les dents, carénés, les cils absents. Les calyptes sont coniques-mitrés à mitrés-campanulés, à base lobée ou frangée, lisses ou papilloscabuleux distalement, nus. Les spores sont lisses à finement papilleuses[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes formant des tapis de taille petite à moyenne, blanches, jaunâtres, vert pâle, bleuâtres ou brunâtres, pleurocarpées. Les tiges primaires sont vertes, rampantes, étalées, régulièrement ou irrégulièrement pennées ; le hyaloderme est présent ou absent, les cellules cylindriques centrales sont grandes, à parois minces, le brin central absent ; la paraphylie et la pseudoparaphylie sont absentes ; les poils axillaires contiennent de deux à plusieurs cellules, la cellule basale étant petite, brune, la cellule distale allongée, hyaline. Les tiges secondaires sont étalées, sous-dressées, frondeuses, non ou peu ramifiées. Les feuilles sont plus ou moins complanaires, souvent orientées dorsiventralement, quelque peu dimorphes ; les feuilles dorsales et ventrales sont dressées, largement oblongues, oblongues-ovales ou ovales-lancéolées ; les feuilles latérales sont dressées-étalées à étalées, plus étroites ; leurs bords sont souvent dentés ; l'apex est généralement acuminé ; le costa est double, bien développé ; les cellules alaires sont indifférenciées ; les cellules lamentaires sont isodiamétriques ou linéaires-rhomboïdales, lisses à une papilles, les parois lâches à fermes ; les cellules marginales formant ou non une bordure.
 </t>
         </is>
       </c>
@@ -634,13 +653,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La condition sexuelle est polygame : autoïque, synoïque ou dioïque. Le seta est rouge à jaune rougeâtre, allongé, lisse ou papillonneux-scabreux. La capsule est inclinée, horizontale, pendante, ou parfois dressée, ovoïde à oblongue-cylindrique, lisse, contractée sous la bouche lorsqu'elle est sèche ; l'annulus est absent ou étroit ; l'opercule est conique, rostré à subulé ; le péristome est double, rouge foncé ou rouge-brun. L'exostome présente seize dents, lancéolées à subulées, sillonnées, striées à la base, papilleuses à la base, trabéculées, parfois bordées ; l'endostome est jaune à jaune-brun, finement papilleux à presque lisse, la membrane basale haute, les segments lancéolés, aussi longs que les dents, carénés, les cils absents. Les calyptes sont coniques-mitrés à mitrés-campanulés, à base lobée ou frangée, lisses ou papilloscabuleux distalement, nus. Les spores sont lisses à finement papilleuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pilotrichaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pilotrichaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Pilotrichaceae, choisi en 1899 par Nils Conrad Kindberg, pour le genre type Pilotrichum[1].
-Pilotrichaceae a pour synonyme[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Pilotrichaceae, choisi en 1899 par Nils Conrad Kindberg, pour le genre type Pilotrichum.
+Pilotrichaceae a pour synonyme :
 Callicostaceae</t>
         </is>
       </c>
